--- a/data/2020-Artedi-Temperature-Experiment-EmbryoMeasurements.xlsx
+++ b/data/2020-Artedi-Temperature-Experiment-EmbryoMeasurements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Taylor/CloudStation/Cisco-Climate-Change/Coregonine-Latitude-Embryo/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955E73AF-B003-4173-B7DB-FA35BE4576AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0FB190-53E8-2440-AB3E-379A603E0BA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15680" yWindow="170" windowWidth="9900" windowHeight="14260" xr2:uid="{CBE3460D-82C6-0746-8A17-5A7414D36BC9}"/>
+    <workbookView xWindow="10180" yWindow="460" windowWidth="18620" windowHeight="16580" xr2:uid="{CBE3460D-82C6-0746-8A17-5A7414D36BC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="77">
   <si>
     <t>population</t>
   </si>
@@ -259,6 +259,15 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>fert_success</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -622,25 +631,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D8460A-7D7B-F04F-B758-EA68E31C4B0C}">
-  <dimension ref="A1:J421"/>
+  <dimension ref="A1:K421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="J178" sqref="J178"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="7.83203125" customWidth="1"/>
-    <col min="7" max="7" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -671,8 +682,11 @@
       <c r="J1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44174</v>
       </c>
@@ -704,8 +718,11 @@
         <f>(I2/15.11)/10</f>
         <v>2.2052945069490404</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44174</v>
       </c>
@@ -737,8 +754,11 @@
         <f t="shared" ref="J3:J36" si="0">(I3/15.11)/10</f>
         <v>2.1727332892124425</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44174</v>
       </c>
@@ -770,8 +790,11 @@
         <f t="shared" si="0"/>
         <v>2.2412971542025151</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44174</v>
       </c>
@@ -803,8 +826,11 @@
         <f t="shared" si="0"/>
         <v>2.2492389146260754</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44174</v>
       </c>
@@ -836,8 +862,11 @@
         <f t="shared" si="0"/>
         <v>2.1395102581072138</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44174</v>
       </c>
@@ -869,8 +898,11 @@
         <f t="shared" si="0"/>
         <v>2.2262078093977502</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44174</v>
       </c>
@@ -902,8 +934,11 @@
         <f t="shared" si="0"/>
         <v>2.2366644606221042</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44174</v>
       </c>
@@ -935,8 +970,11 @@
         <f t="shared" si="0"/>
         <v>2.198345466578425</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44174</v>
       </c>
@@ -968,8 +1006,11 @@
         <f t="shared" si="0"/>
         <v>2.2664460622104565</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44174</v>
       </c>
@@ -1001,8 +1042,11 @@
         <f t="shared" si="0"/>
         <v>2.0945069490403707</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44174</v>
       </c>
@@ -1034,8 +1078,11 @@
         <f t="shared" si="0"/>
         <v>2.0076108537392456</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44174</v>
       </c>
@@ -1067,8 +1114,11 @@
         <f t="shared" si="0"/>
         <v>2.1342819324950364</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44174</v>
       </c>
@@ -1100,8 +1150,11 @@
         <f t="shared" si="0"/>
         <v>2.3149569821310392</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44174</v>
       </c>
@@ -1133,8 +1186,11 @@
         <f t="shared" si="0"/>
         <v>2.3317008603573792</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44174</v>
       </c>
@@ -1166,8 +1222,11 @@
         <f t="shared" si="0"/>
         <v>2.2776968894771676</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44174</v>
       </c>
@@ -1199,8 +1258,11 @@
         <f t="shared" si="0"/>
         <v>2.3790205162144278</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44174</v>
       </c>
@@ -1232,8 +1294,11 @@
         <f t="shared" si="0"/>
         <v>2.3563203176704173</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44174</v>
       </c>
@@ -1265,8 +1330,11 @@
         <f t="shared" si="0"/>
         <v>2.2745201853077432</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44174</v>
       </c>
@@ -1298,8 +1366,11 @@
         <f t="shared" si="0"/>
         <v>2.1786234281932497</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44174</v>
       </c>
@@ -1331,8 +1402,11 @@
         <f t="shared" si="0"/>
         <v>2.3516876240900064</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44174</v>
       </c>
@@ -1364,8 +1438,11 @@
         <f t="shared" si="0"/>
         <v>1.9926538716082063</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44174</v>
       </c>
@@ -1397,8 +1474,11 @@
         <f t="shared" si="0"/>
         <v>1.9464592984778295</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44174</v>
       </c>
@@ -1430,8 +1510,11 @@
         <f t="shared" si="0"/>
         <v>2.0178689609530109</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44174</v>
       </c>
@@ -1463,8 +1546,11 @@
         <f t="shared" si="0"/>
         <v>1.9698213103904698</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44174</v>
       </c>
@@ -1496,8 +1582,11 @@
         <f t="shared" si="0"/>
         <v>1.9878888153540704</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>44174</v>
       </c>
@@ -1529,8 +1618,11 @@
         <f t="shared" si="0"/>
         <v>2.1894109861019193</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>44174</v>
       </c>
@@ -1562,8 +1654,11 @@
         <f t="shared" si="0"/>
         <v>2.2469887491727332</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>44174</v>
       </c>
@@ -1595,8 +1690,11 @@
         <f t="shared" si="0"/>
         <v>2.1854401058901392</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>44174</v>
       </c>
@@ -1628,8 +1726,11 @@
         <f t="shared" si="0"/>
         <v>2.1601588352084713</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>44174</v>
       </c>
@@ -1661,8 +1762,11 @@
         <f t="shared" si="0"/>
         <v>2.169953673064196</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>44174</v>
       </c>
@@ -1694,8 +1798,11 @@
         <f t="shared" si="0"/>
         <v>2.0054930509596294</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>44174</v>
       </c>
@@ -1727,8 +1834,11 @@
         <f t="shared" si="0"/>
         <v>1.9784248841826606</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>44174</v>
       </c>
@@ -1760,8 +1870,11 @@
         <f t="shared" si="0"/>
         <v>2.0266048974189284</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>44174</v>
       </c>
@@ -1793,8 +1906,11 @@
         <f t="shared" si="0"/>
         <v>2.0572468563864992</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>44174</v>
       </c>
@@ -1826,8 +1942,11 @@
         <f t="shared" si="0"/>
         <v>2.0148246194573129</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>44174</v>
       </c>
@@ -1859,8 +1978,11 @@
         <f t="shared" ref="J37:J66" si="1">(I37/15.11)/10</f>
         <v>1.939113170086036</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>44174</v>
       </c>
@@ -1892,8 +2014,11 @@
         <f t="shared" si="1"/>
         <v>2.0165453342157513</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>44174</v>
       </c>
@@ -1925,8 +2050,11 @@
         <f t="shared" si="1"/>
         <v>2.0929185969556583</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>44174</v>
       </c>
@@ -1958,8 +2086,11 @@
         <f t="shared" si="1"/>
         <v>2.0435473196558567</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>44174</v>
       </c>
@@ -1991,8 +2122,11 @@
         <f t="shared" si="1"/>
         <v>1.9340833884844475</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>44174</v>
       </c>
@@ -2024,8 +2158,11 @@
         <f t="shared" si="1"/>
         <v>1.9536730641958968</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>44174</v>
       </c>
@@ -2057,8 +2194,11 @@
         <f t="shared" si="1"/>
         <v>2.079748510919921</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>44174</v>
       </c>
@@ -2090,8 +2230,11 @@
         <f t="shared" si="1"/>
         <v>2.1755129053606885</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44174</v>
       </c>
@@ -2123,8 +2266,11 @@
         <f t="shared" si="1"/>
         <v>2.0925215089344809</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44174</v>
       </c>
@@ -2156,8 +2302,11 @@
         <f t="shared" si="1"/>
         <v>2.0391131700860359</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>44174</v>
       </c>
@@ -2189,8 +2338,11 @@
         <f t="shared" si="1"/>
         <v>2.0463269358041032</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>44174</v>
       </c>
@@ -2222,8 +2374,11 @@
         <f t="shared" si="1"/>
         <v>2.1256121773659826</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>44174</v>
       </c>
@@ -2255,8 +2410,11 @@
         <f t="shared" si="1"/>
         <v>2.100264725347452</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>44174</v>
       </c>
@@ -2288,8 +2446,11 @@
         <f t="shared" si="1"/>
         <v>2.043216412971542</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>44174</v>
       </c>
@@ -2321,8 +2482,11 @@
         <f t="shared" si="1"/>
         <v>2.1502316346790207</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>44174</v>
       </c>
@@ -2354,8 +2518,11 @@
         <f t="shared" si="1"/>
         <v>1.9799470549305098</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>44174</v>
       </c>
@@ -2387,8 +2554,11 @@
         <f t="shared" si="1"/>
         <v>2.1099933818663139</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>44174</v>
       </c>
@@ -2420,8 +2590,11 @@
         <f t="shared" si="1"/>
         <v>2.0198544010589012</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>44174</v>
       </c>
@@ -2453,8 +2626,11 @@
         <f t="shared" si="1"/>
         <v>2.141892786234282</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K55" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>44174</v>
       </c>
@@ -2486,8 +2662,11 @@
         <f t="shared" si="1"/>
         <v>2.0575777630708139</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K56" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>44174</v>
       </c>
@@ -2519,8 +2698,11 @@
         <f t="shared" si="1"/>
         <v>2.1168100595632033</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>44174</v>
       </c>
@@ -2552,8 +2734,11 @@
         <f t="shared" si="1"/>
         <v>2.0154864328259432</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K58" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>44174</v>
       </c>
@@ -2585,8 +2770,11 @@
         <f t="shared" si="1"/>
         <v>2.1045665122435473</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K59" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>44174</v>
       </c>
@@ -2618,8 +2806,11 @@
         <f t="shared" si="1"/>
         <v>2.1027134348113834</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K60" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>44174</v>
       </c>
@@ -2651,8 +2842,11 @@
         <f t="shared" si="1"/>
         <v>2.1391793514228992</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K61" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>44174</v>
       </c>
@@ -2684,8 +2878,11 @@
         <f t="shared" si="1"/>
         <v>2.1890138980807414</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K62" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>44174</v>
       </c>
@@ -2717,8 +2914,11 @@
         <f t="shared" si="1"/>
         <v>2.1125744540039708</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K63" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>44174</v>
       </c>
@@ -2750,8 +2950,11 @@
         <f t="shared" si="1"/>
         <v>2.0455327597617474</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K64" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>44174</v>
       </c>
@@ -2783,8 +2986,11 @@
         <f t="shared" si="1"/>
         <v>2.0757114493712772</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K65" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>44174</v>
       </c>
@@ -2816,8 +3022,11 @@
         <f t="shared" si="1"/>
         <v>2.1180675049636006</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K66" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>44174</v>
       </c>
@@ -2849,8 +3058,11 @@
         <f>(I67/15.11)/10</f>
         <v>2.0899404367968235</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K67" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>44174</v>
       </c>
@@ -2882,8 +3094,11 @@
         <f t="shared" ref="J68:J99" si="2">(I68/15.11)/10</f>
         <v>2.0583057577763073</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K68" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>44174</v>
       </c>
@@ -2915,8 +3130,11 @@
         <f t="shared" si="2"/>
         <v>2.0618795499669096</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K69" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>44174</v>
       </c>
@@ -2948,8 +3166,11 @@
         <f t="shared" si="2"/>
         <v>2.0686300463269358</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>44174</v>
       </c>
@@ -2981,8 +3202,11 @@
         <f t="shared" si="2"/>
         <v>2.094904037061549</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K71" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>44174</v>
       </c>
@@ -3014,8 +3238,11 @@
         <f t="shared" si="2"/>
         <v>2.1624090006618135</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>44174</v>
       </c>
@@ -3047,8 +3274,11 @@
         <f t="shared" si="2"/>
         <v>2.1013898080741233</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>44174</v>
       </c>
@@ -3080,8 +3310,11 @@
         <f t="shared" si="2"/>
         <v>2.1344804765056251</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K74" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>44174</v>
       </c>
@@ -3113,8 +3346,11 @@
         <f t="shared" si="2"/>
         <v>2.2156849768365321</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K75" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>44174</v>
       </c>
@@ -3146,8 +3382,11 @@
         <f t="shared" si="2"/>
         <v>2.1692256783587025</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>44174</v>
       </c>
@@ -3179,8 +3418,11 @@
         <f t="shared" si="2"/>
         <v>2.1162144275314363</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K77" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>44174</v>
       </c>
@@ -3212,8 +3454,11 @@
         <f t="shared" si="2"/>
         <v>2.1385175380542689</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K78" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>44174</v>
       </c>
@@ -3245,8 +3490,11 @@
         <f t="shared" si="2"/>
         <v>2.085704831237591</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K79" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>44174</v>
       </c>
@@ -3278,8 +3526,11 @@
         <f t="shared" si="2"/>
         <v>2.0620780939774983</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K80" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>44174</v>
       </c>
@@ -3311,8 +3562,11 @@
         <f t="shared" si="2"/>
         <v>2.1684976836532099</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K81" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>44174</v>
       </c>
@@ -3344,8 +3598,11 @@
         <f t="shared" si="2"/>
         <v>2.0968894771674385</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K82" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>44174</v>
       </c>
@@ -3377,8 +3634,11 @@
         <f t="shared" si="2"/>
         <v>2.0761747187293182</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K83" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>44174</v>
       </c>
@@ -3410,8 +3670,11 @@
         <f t="shared" si="2"/>
         <v>2.0484447385837194</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K84" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>44174</v>
       </c>
@@ -3443,8 +3706,11 @@
         <f t="shared" si="2"/>
         <v>1.9724685638649901</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K85" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>44174</v>
       </c>
@@ -3476,8 +3742,11 @@
         <f t="shared" si="2"/>
         <v>2.0620780939774983</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K86" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>44174</v>
       </c>
@@ -3509,8 +3778,11 @@
         <f t="shared" si="2"/>
         <v>2.0267372600926539</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K87" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>44174</v>
       </c>
@@ -3542,8 +3814,11 @@
         <f t="shared" si="2"/>
         <v>1.9923229649238916</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K88" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>44174</v>
       </c>
@@ -3575,8 +3850,11 @@
         <f t="shared" si="2"/>
         <v>1.9812045003309069</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K89" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>44174</v>
       </c>
@@ -3608,8 +3886,11 @@
         <f t="shared" si="2"/>
         <v>2.0214427531436137</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K90" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>44174</v>
       </c>
@@ -3641,8 +3922,11 @@
         <f t="shared" si="2"/>
         <v>2.0258107213765717</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K91" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>44174</v>
       </c>
@@ -3674,8 +3958,11 @@
         <f t="shared" si="2"/>
         <v>1.9445400397088022</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K92" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>44174</v>
       </c>
@@ -3707,8 +3994,11 @@
         <f t="shared" si="2"/>
         <v>2.0401058901389808</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K93" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>44174</v>
       </c>
@@ -3740,8 +4030,11 @@
         <f t="shared" si="2"/>
         <v>2.0913964262078091</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K94" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>44174</v>
       </c>
@@ -3773,8 +4066,11 @@
         <f t="shared" si="2"/>
         <v>1.9729318332230315</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K95" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>44174</v>
       </c>
@@ -3806,8 +4102,11 @@
         <f t="shared" si="2"/>
         <v>2.0684976836532103</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K96" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>44174</v>
       </c>
@@ -3839,8 +4138,11 @@
         <f t="shared" si="2"/>
         <v>2.0305095962938453</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K97" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>44174</v>
       </c>
@@ -3872,8 +4174,11 @@
         <f t="shared" si="2"/>
         <v>1.9579748510919923</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K98" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>44174</v>
       </c>
@@ -3905,8 +4210,11 @@
         <f t="shared" si="2"/>
         <v>2.0481800132362675</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K99" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>44174</v>
       </c>
@@ -3938,8 +4246,11 @@
         <f t="shared" ref="J100:J131" si="3">(I100/15.11)/10</f>
         <v>2.1087359364659166</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K100" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>44174</v>
       </c>
@@ -3971,8 +4282,11 @@
         <f t="shared" si="3"/>
         <v>2.0788219722038388</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K101" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>44174</v>
       </c>
@@ -4004,8 +4318,11 @@
         <f t="shared" si="3"/>
         <v>2.2937789543348774</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K102" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>44174</v>
       </c>
@@ -4037,8 +4354,11 @@
         <f t="shared" si="3"/>
         <v>2.3166115155526144</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K103" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>44174</v>
       </c>
@@ -4070,8 +4390,11 @@
         <f t="shared" si="3"/>
         <v>2.3018530774321642</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K104" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>44174</v>
       </c>
@@ -4103,8 +4426,11 @@
         <f t="shared" si="3"/>
         <v>2.2989410986101921</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K105" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>44174</v>
       </c>
@@ -4136,8 +4462,11 @@
         <f t="shared" si="3"/>
         <v>2.3190602250165453</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K106" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>44174</v>
       </c>
@@ -4169,8 +4498,11 @@
         <f t="shared" si="3"/>
         <v>2.2998676373262739</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K107" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>44174</v>
       </c>
@@ -4202,8 +4534,11 @@
         <f t="shared" si="3"/>
         <v>2.3142951687624089</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K108" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>44174</v>
       </c>
@@ -4235,8 +4570,11 @@
         <f t="shared" si="3"/>
         <v>2.2795499669093315</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K109" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>44174</v>
       </c>
@@ -4268,8 +4606,11 @@
         <f t="shared" si="3"/>
         <v>2.2589013898080741</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K110" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>44174</v>
       </c>
@@ -4301,8 +4642,11 @@
         <f t="shared" si="3"/>
         <v>2.2111184645929849</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K111" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>44174</v>
       </c>
@@ -4334,8 +4678,11 @@
         <f t="shared" si="3"/>
         <v>2.3614162806088683</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K112" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>44174</v>
       </c>
@@ -4367,8 +4714,11 @@
         <f t="shared" si="3"/>
         <v>2.3213103904698875</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K113" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>44174</v>
       </c>
@@ -4400,8 +4750,11 @@
         <f t="shared" si="3"/>
         <v>2.2495698213103905</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K114" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>44174</v>
       </c>
@@ -4433,8 +4786,11 @@
         <f t="shared" si="3"/>
         <v>2.2750496360026475</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K115" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>44174</v>
       </c>
@@ -4466,8 +4822,11 @@
         <f t="shared" si="3"/>
         <v>2.21740569159497</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K116" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>44174</v>
       </c>
@@ -4499,8 +4858,11 @@
         <f t="shared" si="3"/>
         <v>2.4466578424884182</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K117" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>44174</v>
       </c>
@@ -4532,8 +4894,11 @@
         <f t="shared" si="3"/>
         <v>2.3168762409000658</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K118" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>44174</v>
       </c>
@@ -4565,8 +4930,11 @@
         <f t="shared" si="3"/>
         <v>2.2614162806088682</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K119" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>44174</v>
       </c>
@@ -4598,8 +4966,11 @@
         <f t="shared" si="3"/>
         <v>2.4389146260754466</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K120" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>44174</v>
       </c>
@@ -4631,8 +5002,11 @@
         <f t="shared" si="3"/>
         <v>2.4185307743216411</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K121" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>44174</v>
       </c>
@@ -4664,8 +5038,11 @@
         <f t="shared" si="3"/>
         <v>2.0960291197882195</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K122" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>44174</v>
       </c>
@@ -4697,8 +5074,11 @@
         <f t="shared" si="3"/>
         <v>2.0875579086697553</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K123" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>44174</v>
       </c>
@@ -4730,8 +5110,11 @@
         <f t="shared" si="3"/>
         <v>2.1438120450033091</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K124" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>44174</v>
       </c>
@@ -4763,8 +5146,11 @@
         <f t="shared" si="3"/>
         <v>2.0688947716743877</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K125" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>44174</v>
       </c>
@@ -4796,8 +5182,11 @@
         <f t="shared" si="3"/>
         <v>2.0551952349437461</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K126" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>44174</v>
       </c>
@@ -4829,8 +5218,11 @@
         <f t="shared" si="3"/>
         <v>2.0844473858371937</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K127" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>44174</v>
       </c>
@@ -4862,8 +5254,11 @@
         <f t="shared" si="3"/>
         <v>2.2416280608868298</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K128" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>44174</v>
       </c>
@@ -4895,8 +5290,11 @@
         <f t="shared" si="3"/>
         <v>2.0964262078093978</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K129" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>44174</v>
       </c>
@@ -4928,8 +5326,11 @@
         <f t="shared" si="3"/>
         <v>2.184513567174057</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K130" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>44174</v>
       </c>
@@ -4961,8 +5362,11 @@
         <f t="shared" si="3"/>
         <v>2.1475181998676378</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K131" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>44174</v>
       </c>
@@ -4994,8 +5398,11 @@
         <f t="shared" ref="J132:J162" si="4">(I132/15.11)/10</f>
         <v>2.2025148908007943</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K132" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>44174</v>
       </c>
@@ -5027,8 +5434,11 @@
         <f t="shared" si="4"/>
         <v>2.1250827266710788</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K133" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>44174</v>
       </c>
@@ -5060,8 +5470,11 @@
         <f t="shared" si="4"/>
         <v>2.1189940436796824</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K134" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>44174</v>
       </c>
@@ -5093,8 +5506,11 @@
         <f t="shared" si="4"/>
         <v>2.1645929847782925</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K135" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>44174</v>
       </c>
@@ -5126,8 +5542,11 @@
         <f t="shared" si="4"/>
         <v>2.1234943745863668</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K136" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>44174</v>
       </c>
@@ -5159,8 +5578,11 @@
         <f t="shared" si="4"/>
         <v>2.1252150893448052</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K137" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>44174</v>
       </c>
@@ -5192,8 +5614,11 @@
         <f t="shared" si="4"/>
         <v>2.1890800794176042</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K138" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>44174</v>
       </c>
@@ -5225,8 +5650,11 @@
         <f t="shared" si="4"/>
         <v>2.1988087359364661</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K139" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>44174</v>
       </c>
@@ -5258,8 +5686,11 @@
         <f t="shared" si="4"/>
         <v>2.1649238914626077</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K140" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>44174</v>
       </c>
@@ -5291,8 +5722,11 @@
         <f t="shared" si="4"/>
         <v>2.1004632693580412</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K141" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>44174</v>
       </c>
@@ -5324,8 +5758,11 @@
         <f t="shared" si="4"/>
         <v>1.9506287227001988</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K142" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>44174</v>
       </c>
@@ -5357,8 +5794,11 @@
         <f t="shared" si="4"/>
         <v>1.9027134348113832</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K143" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>44174</v>
       </c>
@@ -5390,8 +5830,11 @@
         <f t="shared" si="4"/>
         <v>1.9520847121111846</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K144" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>44174</v>
       </c>
@@ -5423,8 +5866,11 @@
         <f t="shared" si="4"/>
         <v>1.9610853739245535</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K145" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>44174</v>
       </c>
@@ -5456,8 +5902,11 @@
         <f t="shared" si="4"/>
         <v>1.9328921244209134</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K146" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>44174</v>
       </c>
@@ -5489,8 +5938,11 @@
         <f t="shared" si="4"/>
         <v>1.9395102581072137</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K147" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>44174</v>
       </c>
@@ -5522,8 +5974,11 @@
         <f t="shared" si="4"/>
         <v>1.9381204500330909</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K148" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>44174</v>
       </c>
@@ -5555,8 +6010,11 @@
         <f t="shared" si="4"/>
         <v>1.9628722700198544</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K149" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>44174</v>
       </c>
@@ -5588,8 +6046,11 @@
         <f t="shared" si="4"/>
         <v>1.999205823957644</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K150" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>44174</v>
       </c>
@@ -5621,8 +6082,11 @@
         <f t="shared" si="4"/>
         <v>1.9586366644606223</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K151" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>44174</v>
       </c>
@@ -5654,8 +6118,11 @@
         <f t="shared" si="4"/>
         <v>1.9187954996690935</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K152" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>44174</v>
       </c>
@@ -5687,8 +6154,11 @@
         <f t="shared" si="4"/>
         <v>2.0522832561217741</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K153" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>44174</v>
       </c>
@@ -5720,8 +6190,11 @@
         <f t="shared" si="4"/>
         <v>1.9882197220383855</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K154" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>44174</v>
       </c>
@@ -5753,8 +6226,11 @@
         <f t="shared" si="4"/>
         <v>2.0278623428193252</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K155" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>44174</v>
       </c>
@@ -5786,8 +6262,11 @@
         <f t="shared" si="4"/>
         <v>1.9350761085373924</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K156" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>44174</v>
       </c>
@@ -5819,8 +6298,11 @@
         <f t="shared" si="4"/>
         <v>2.0385837193911316</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K157" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>44174</v>
       </c>
@@ -5852,8 +6334,11 @@
         <f t="shared" si="4"/>
         <v>1.915949702183984</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K158" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>44174</v>
       </c>
@@ -5885,8 +6370,11 @@
         <f t="shared" si="4"/>
         <v>2.030112508272667</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K159" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>44174</v>
       </c>
@@ -5918,8 +6406,11 @@
         <f t="shared" si="4"/>
         <v>1.9637988087359368</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K160" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>44174</v>
       </c>
@@ -5951,8 +6442,11 @@
         <f t="shared" si="4"/>
         <v>1.9463269358041031</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K161" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>44174</v>
       </c>
@@ -5984,8 +6478,11 @@
         <f t="shared" si="4"/>
         <v>1.9979483785572469</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K162" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>44174</v>
       </c>
@@ -6017,8 +6514,11 @@
         <f t="shared" ref="J163:J196" si="5">(I163/15.11)/10</f>
         <v>1.9849106551952349</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K163" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>44174</v>
       </c>
@@ -6050,8 +6550,11 @@
         <f t="shared" si="5"/>
         <v>2.0467240238252815</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K164" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>44174</v>
       </c>
@@ -6083,8 +6586,11 @@
         <f t="shared" si="5"/>
         <v>1.9982792852415621</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K165" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>44174</v>
       </c>
@@ -6116,8 +6622,11 @@
         <f t="shared" si="5"/>
         <v>2.0275976174718733</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K166" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>44174</v>
       </c>
@@ -6149,8 +6658,11 @@
         <f t="shared" si="5"/>
         <v>1.9632693580410323</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K167" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>44174</v>
       </c>
@@ -6182,8 +6694,11 @@
         <f t="shared" si="5"/>
         <v>2.0135671740569161</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K168" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>44174</v>
       </c>
@@ -6215,8 +6730,11 @@
         <f t="shared" si="5"/>
         <v>1.8635340833884844</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K169" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>44174</v>
       </c>
@@ -6248,8 +6766,11 @@
         <f t="shared" si="5"/>
         <v>1.94427531436135</v>
       </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K170" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>44174</v>
       </c>
@@ -6281,8 +6802,11 @@
         <f t="shared" si="5"/>
         <v>1.9861019192587694</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K171" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>44174</v>
       </c>
@@ -6314,8 +6838,11 @@
         <f t="shared" si="5"/>
         <v>2.0414295168762409</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K172" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>44174</v>
       </c>
@@ -6347,8 +6874,11 @@
         <f t="shared" si="5"/>
         <v>2.1293845135671741</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K173" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>44174</v>
       </c>
@@ -6380,8 +6910,11 @@
         <f t="shared" si="5"/>
         <v>2.0487094639311714</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K174" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>44174</v>
       </c>
@@ -6413,8 +6946,11 @@
         <f t="shared" si="5"/>
         <v>2.0215751158173392</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K175" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>44174</v>
       </c>
@@ -6446,8 +6982,11 @@
         <f t="shared" si="5"/>
         <v>2.0739907346128392</v>
       </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K176" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>44174</v>
       </c>
@@ -6479,8 +7018,11 @@
         <f t="shared" si="5"/>
         <v>2.0275976174718733</v>
       </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K177" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>44174</v>
       </c>
@@ -6512,8 +7054,11 @@
         <f t="shared" si="5"/>
         <v>1.9939113170086036</v>
       </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K178" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>44174</v>
       </c>
@@ -6545,8 +7090,11 @@
         <f t="shared" si="5"/>
         <v>2.1066181336863008</v>
       </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K179" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>44174</v>
       </c>
@@ -6578,8 +7126,11 @@
         <f t="shared" si="5"/>
         <v>2.125876902713435</v>
       </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K180" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>44174</v>
       </c>
@@ -6611,8 +7162,11 @@
         <f t="shared" si="5"/>
         <v>2.0869622766379878</v>
       </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K181" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>44163</v>
       </c>
@@ -6644,8 +7198,11 @@
         <f t="shared" si="5"/>
         <v>2.3024487094639312</v>
       </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K182" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>44163</v>
       </c>
@@ -6677,8 +7234,11 @@
         <f t="shared" si="5"/>
         <v>2.3236267372600929</v>
       </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K183" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>44163</v>
       </c>
@@ -6710,8 +7270,11 @@
         <f t="shared" si="5"/>
         <v>2.2918596955658503</v>
       </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K184" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>44163</v>
       </c>
@@ -6743,8 +7306,11 @@
         <f t="shared" si="5"/>
         <v>2.2754467240238254</v>
       </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K185" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>44163</v>
       </c>
@@ -6776,8 +7342,11 @@
         <f t="shared" si="5"/>
         <v>2.3145598941098613</v>
       </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K186" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>44163</v>
       </c>
@@ -6809,8 +7378,11 @@
         <f t="shared" si="5"/>
         <v>2.2761747187293184</v>
       </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K187" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>44163</v>
       </c>
@@ -6842,8 +7414,11 @@
         <f t="shared" si="5"/>
         <v>2.2604235605559233</v>
       </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K188" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>44163</v>
       </c>
@@ -6875,8 +7450,11 @@
         <f t="shared" si="5"/>
         <v>2.228457974851092</v>
       </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K189" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>44163</v>
       </c>
@@ -6908,8 +7486,11 @@
         <f t="shared" si="5"/>
         <v>2.3140966247518202</v>
       </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K190" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>44163</v>
       </c>
@@ -6941,8 +7522,11 @@
         <f t="shared" si="5"/>
         <v>2.2420913302448708</v>
       </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K191" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>44163</v>
       </c>
@@ -6974,8 +7558,11 @@
         <f t="shared" si="5"/>
         <v>2.2420913302448708</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K192" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>44163</v>
       </c>
@@ -7007,8 +7594,11 @@
         <f t="shared" si="5"/>
         <v>2.2908669755129054</v>
       </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K193" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>44163</v>
       </c>
@@ -7040,8 +7630,11 @@
         <f t="shared" si="5"/>
         <v>2.2183322303110522</v>
       </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K194" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>44163</v>
       </c>
@@ -7073,8 +7666,11 @@
         <f t="shared" si="5"/>
         <v>2.3612839179351424</v>
       </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K195" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>44163</v>
       </c>
@@ -7106,8 +7702,11 @@
         <f t="shared" si="5"/>
         <v>2.2874917273328923</v>
       </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K196" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>44163</v>
       </c>
@@ -7139,8 +7738,11 @@
         <f t="shared" ref="J197:J226" si="6">(I197/15.11)/10</f>
         <v>2.313170086035738</v>
       </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K197" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>44163</v>
       </c>
@@ -7172,8 +7774,11 @@
         <f t="shared" si="6"/>
         <v>2.313302448709464</v>
       </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K198" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>44163</v>
       </c>
@@ -7205,8 +7810,11 @@
         <f t="shared" si="6"/>
         <v>2.3513567174056917</v>
       </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K199" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>44163</v>
       </c>
@@ -7238,8 +7846,11 @@
         <f t="shared" si="6"/>
         <v>2.329450694904037</v>
       </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K200" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>44163</v>
       </c>
@@ -7271,8 +7882,11 @@
         <f t="shared" si="6"/>
         <v>2.3458636664460619</v>
       </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K201" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>44163</v>
       </c>
@@ -7304,8 +7918,11 @@
         <f t="shared" si="6"/>
         <v>2.199073461283918</v>
       </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K202" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>44163</v>
       </c>
@@ -7337,8 +7954,11 @@
         <f t="shared" si="6"/>
         <v>2.1826604897418926</v>
       </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K203" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>44163</v>
       </c>
@@ -7370,8 +7990,11 @@
         <f t="shared" si="6"/>
         <v>2.2020516214427532</v>
       </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K204" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>44163</v>
       </c>
@@ -7403,8 +8026,11 @@
         <f t="shared" si="6"/>
         <v>2.1894109861019193</v>
       </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K205" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>44163</v>
       </c>
@@ -7436,8 +8062,11 @@
         <f t="shared" si="6"/>
         <v>2.2021178027796164</v>
       </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K206" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>44163</v>
       </c>
@@ -7469,8 +8098,11 @@
         <f t="shared" si="6"/>
         <v>2.2790866975512905</v>
       </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K207" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>44163</v>
       </c>
@@ -7502,8 +8134,11 @@
         <f t="shared" si="6"/>
         <v>2.2681005956320317</v>
       </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K208" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>44163</v>
       </c>
@@ -7535,8 +8170,11 @@
         <f t="shared" si="6"/>
         <v>2.3013236267372603</v>
       </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K209" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>44163</v>
       </c>
@@ -7568,8 +8206,11 @@
         <f t="shared" si="6"/>
         <v>2.2759099933818665</v>
       </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K210" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>44163</v>
       </c>
@@ -7601,8 +8242,11 @@
         <f t="shared" si="6"/>
         <v>2.2602911978821973</v>
       </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K211" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>44163</v>
       </c>
@@ -7634,8 +8278,11 @@
         <f t="shared" si="6"/>
         <v>2.3036399735274653</v>
       </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K212" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>44163</v>
       </c>
@@ -7667,8 +8314,11 @@
         <f t="shared" si="6"/>
         <v>2.3154202514890803</v>
       </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K213" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>44163</v>
       </c>
@@ -7700,8 +8350,11 @@
         <f t="shared" si="6"/>
         <v>2.2038385175380544</v>
       </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K214" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>44163</v>
       </c>
@@ -7733,8 +8386,11 @@
         <f t="shared" si="6"/>
         <v>2.3097286565188617</v>
       </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K215" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>44163</v>
       </c>
@@ -7766,8 +8422,11 @@
         <f t="shared" si="6"/>
         <v>2.3029119788219723</v>
       </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K216" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>44163</v>
       </c>
@@ -7799,8 +8458,11 @@
         <f t="shared" si="6"/>
         <v>2.2935804103242887</v>
       </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K217" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>44163</v>
       </c>
@@ -7832,8 +8494,11 @@
         <f t="shared" si="6"/>
         <v>2.2844473858371943</v>
       </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K218" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>44163</v>
       </c>
@@ -7865,8 +8530,11 @@
         <f t="shared" si="6"/>
         <v>2.278093977498346</v>
       </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K219" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>44163</v>
       </c>
@@ -7898,8 +8566,11 @@
         <f t="shared" si="6"/>
         <v>2.2625413633355396</v>
       </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K220" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>44163</v>
       </c>
@@ -7931,8 +8602,11 @@
         <f t="shared" si="6"/>
         <v>2.2930509596293849</v>
       </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K221" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>44163</v>
       </c>
@@ -7964,8 +8638,11 @@
         <f t="shared" si="6"/>
         <v>2.2981469225678359</v>
       </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K222" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>44163</v>
       </c>
@@ -7997,8 +8674,11 @@
         <f t="shared" si="6"/>
         <v>2.3535407015221708</v>
       </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K223" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>44163</v>
       </c>
@@ -8030,8 +8710,11 @@
         <f t="shared" si="6"/>
         <v>2.2833223031105225</v>
       </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K224" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>44163</v>
       </c>
@@ -8063,8 +8746,11 @@
         <f t="shared" si="6"/>
         <v>2.2525479814692257</v>
       </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K225" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>44163</v>
       </c>
@@ -8096,8 +8782,11 @@
         <f t="shared" si="6"/>
         <v>2.3062210456651226</v>
       </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K226" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>44163</v>
       </c>
@@ -8129,8 +8818,11 @@
         <f t="shared" ref="J227:J259" si="7">(I227/15.11)/10</f>
         <v>2.2905360688285907</v>
       </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K227" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>44163</v>
       </c>
@@ -8162,8 +8854,11 @@
         <f t="shared" si="7"/>
         <v>2.3002647253474522</v>
       </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K228" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>44163</v>
       </c>
@@ -8195,8 +8890,11 @@
         <f t="shared" si="7"/>
         <v>2.2863004632693582</v>
       </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K229" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>44163</v>
       </c>
@@ -8228,8 +8926,11 @@
         <f t="shared" si="7"/>
         <v>2.2800794176042354</v>
       </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K230" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>44163</v>
       </c>
@@ -8261,8 +8962,11 @@
         <f t="shared" si="7"/>
         <v>2.293977498345467</v>
       </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K231" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>44163</v>
       </c>
@@ -8294,8 +8998,11 @@
         <f t="shared" si="7"/>
         <v>2.3204500330906686</v>
       </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K232" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>44163</v>
       </c>
@@ -8327,8 +9034,11 @@
         <f t="shared" si="7"/>
         <v>2.2985440105890143</v>
       </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K233" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>44163</v>
       </c>
@@ -8360,8 +9070,11 @@
         <f t="shared" si="7"/>
         <v>2.3107875579086699</v>
       </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K234" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>44163</v>
       </c>
@@ -8393,8 +9106,11 @@
         <f t="shared" si="7"/>
         <v>2.253342157511582</v>
       </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K235" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>44163</v>
       </c>
@@ -8426,8 +9142,11 @@
         <f t="shared" si="7"/>
         <v>2.2797485109199207</v>
       </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K236" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>44163</v>
       </c>
@@ -8459,8 +9178,11 @@
         <f t="shared" si="7"/>
         <v>2.2138318994043678</v>
       </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K237" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>44163</v>
       </c>
@@ -8492,8 +9214,11 @@
         <f t="shared" si="7"/>
         <v>2.2451356717405693</v>
       </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K238" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>44163</v>
       </c>
@@ -8525,8 +9250,11 @@
         <f t="shared" si="7"/>
         <v>2.25175380542687</v>
       </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K239" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>44163</v>
       </c>
@@ -8558,8 +9286,11 @@
         <f t="shared" si="7"/>
         <v>2.214493712772998</v>
       </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K240" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>44163</v>
       </c>
@@ -8591,8 +9322,11 @@
         <f t="shared" si="7"/>
         <v>2.2921906022501655</v>
       </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K241" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>44163</v>
       </c>
@@ -8624,8 +9358,11 @@
         <f t="shared" si="7"/>
         <v>2.4242885506287228</v>
       </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K242" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>44163</v>
       </c>
@@ -8657,8 +9394,11 @@
         <f t="shared" si="7"/>
         <v>2.4431502316346796</v>
       </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K243" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>44163</v>
       </c>
@@ -8690,8 +9430,11 @@
         <f t="shared" si="7"/>
         <v>2.4034414295168767</v>
       </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K244" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>44163</v>
       </c>
@@ -8723,8 +9466,11 @@
         <f t="shared" si="7"/>
         <v>2.3974189278623426</v>
       </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K245" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>44163</v>
       </c>
@@ -8756,8 +9502,11 @@
         <f t="shared" si="7"/>
         <v>2.4386499007279947</v>
       </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K246" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>44163</v>
       </c>
@@ -8789,8 +9538,11 @@
         <f t="shared" si="7"/>
         <v>2.4349437458636669</v>
       </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K247" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>44163</v>
       </c>
@@ -8822,8 +9574,11 @@
         <f t="shared" si="7"/>
         <v>2.387954996690933</v>
       </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K248" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>44163</v>
       </c>
@@ -8855,8 +9610,11 @@
         <f t="shared" si="7"/>
         <v>2.4054268696227661</v>
       </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K249" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>44163</v>
       </c>
@@ -8888,8 +9646,11 @@
         <f t="shared" si="7"/>
         <v>2.4295830575777631</v>
       </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K250" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>44163</v>
       </c>
@@ -8921,8 +9682,11 @@
         <f t="shared" si="7"/>
         <v>2.3499669093315685</v>
       </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K251" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>44163</v>
       </c>
@@ -8954,8 +9718,11 @@
         <f t="shared" si="7"/>
         <v>2.3523494374586367</v>
       </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K252" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>44163</v>
       </c>
@@ -8987,8 +9754,11 @@
         <f t="shared" si="7"/>
         <v>2.3672402382528128</v>
       </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K253" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>44163</v>
       </c>
@@ -9020,8 +9790,11 @@
         <f t="shared" si="7"/>
         <v>2.3933818663136996</v>
       </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K254" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>44163</v>
       </c>
@@ -9053,8 +9826,11 @@
         <f t="shared" si="7"/>
         <v>2.4165453342157512</v>
       </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K255" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>44163</v>
       </c>
@@ -9086,8 +9862,11 @@
         <f t="shared" si="7"/>
         <v>2.4305095962938452</v>
       </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K256" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>44163</v>
       </c>
@@ -9119,8 +9898,11 @@
         <f t="shared" si="7"/>
         <v>2.3855724685638648</v>
       </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K257" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>44163</v>
       </c>
@@ -9152,8 +9934,11 @@
         <f t="shared" si="7"/>
         <v>2.4248841826604894</v>
       </c>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K258" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>44163</v>
       </c>
@@ -9185,8 +9970,11 @@
         <f t="shared" si="7"/>
         <v>2.4338848444738583</v>
       </c>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K259" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>44163</v>
       </c>
@@ -9218,8 +10006,11 @@
         <f t="shared" ref="J260:J291" si="8">(I260/15.11)/10</f>
         <v>2.4078093977498343</v>
       </c>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K260" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>44163</v>
       </c>
@@ -9251,8 +10042,11 @@
         <f t="shared" si="8"/>
         <v>2.4166115155526144</v>
       </c>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K261" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>44163</v>
       </c>
@@ -9284,8 +10078,11 @@
         <f t="shared" si="8"/>
         <v>2.3238252812706817</v>
       </c>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K262" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>44163</v>
       </c>
@@ -9317,8 +10114,11 @@
         <f t="shared" si="8"/>
         <v>2.3895433487756454</v>
       </c>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K263" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>44163</v>
       </c>
@@ -9350,8 +10150,11 @@
         <f t="shared" si="8"/>
         <v>2.3868960953011253</v>
       </c>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K264" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>44163</v>
       </c>
@@ -9383,8 +10186,11 @@
         <f t="shared" si="8"/>
         <v>2.3839179351422901</v>
       </c>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K265" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>44163</v>
       </c>
@@ -9416,8 +10222,11 @@
         <f t="shared" si="8"/>
         <v>2.4179351422898745</v>
       </c>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K266" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>44163</v>
       </c>
@@ -9449,8 +10258,11 @@
         <f t="shared" si="8"/>
         <v>2.3225016545334216</v>
       </c>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K267" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>44163</v>
       </c>
@@ -9482,8 +10294,11 @@
         <f t="shared" si="8"/>
         <v>2.3726009265387162</v>
       </c>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K268" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>44163</v>
       </c>
@@ -9515,8 +10330,11 @@
         <f t="shared" si="8"/>
         <v>2.3182660489741895</v>
       </c>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K269" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>44163</v>
       </c>
@@ -9548,8 +10366,11 @@
         <f t="shared" si="8"/>
         <v>2.2917273328921244</v>
       </c>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K270" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>44163</v>
       </c>
@@ -9581,8 +10402,11 @@
         <f t="shared" si="8"/>
         <v>2.2949040370615483</v>
       </c>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K271" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>44163</v>
       </c>
@@ -9614,8 +10438,11 @@
         <f t="shared" si="8"/>
         <v>2.3174718729318338</v>
       </c>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K272" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>44163</v>
       </c>
@@ -9647,8 +10474,11 @@
         <f t="shared" si="8"/>
         <v>2.4124420913302447</v>
       </c>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K273" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>44163</v>
       </c>
@@ -9680,8 +10510,11 @@
         <f t="shared" si="8"/>
         <v>2.40132362673726</v>
       </c>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K274" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>44163</v>
       </c>
@@ -9713,8 +10546,11 @@
         <f t="shared" si="8"/>
         <v>2.3542686962276642</v>
       </c>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K275" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>44163</v>
       </c>
@@ -9746,8 +10582,11 @@
         <f t="shared" si="8"/>
         <v>2.3489741892786236</v>
       </c>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K276" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>44163</v>
       </c>
@@ -9779,8 +10618,11 @@
         <f t="shared" si="8"/>
         <v>2.4100595632031769</v>
       </c>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K277" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>44163</v>
       </c>
@@ -9812,8 +10654,11 @@
         <f t="shared" si="8"/>
         <v>2.2886168100595632</v>
       </c>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K278" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>44163</v>
       </c>
@@ -9845,8 +10690,11 @@
         <f t="shared" si="8"/>
         <v>2.3622104566512245</v>
       </c>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K279" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>44163</v>
       </c>
@@ -9878,8 +10726,11 @@
         <f t="shared" si="8"/>
         <v>2.3681005956320318</v>
       </c>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K280" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>44163</v>
       </c>
@@ -9911,8 +10762,11 @@
         <f t="shared" si="8"/>
         <v>2.3741230972865655</v>
       </c>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K281" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>44163</v>
       </c>
@@ -9944,8 +10798,11 @@
         <f t="shared" si="8"/>
         <v>2.2441429516876239</v>
       </c>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K282" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>44163</v>
       </c>
@@ -9977,8 +10834,11 @@
         <f t="shared" si="8"/>
         <v>2.2988749172733289</v>
       </c>
-    </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K283" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>44163</v>
       </c>
@@ -10010,8 +10870,11 @@
         <f t="shared" si="8"/>
         <v>2.2405691594970221</v>
       </c>
-    </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K284" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>44163</v>
       </c>
@@ -10043,8 +10906,11 @@
         <f t="shared" si="8"/>
         <v>2.1991396426207812</v>
       </c>
-    </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K285" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>44163</v>
       </c>
@@ -10076,8 +10942,11 @@
         <f t="shared" si="8"/>
         <v>2.3038385175380545</v>
       </c>
-    </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K286" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>44163</v>
       </c>
@@ -10109,8 +10978,11 @@
         <f t="shared" si="8"/>
         <v>2.2829252150893451</v>
       </c>
-    </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K287" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>44163</v>
       </c>
@@ -10142,8 +11014,11 @@
         <f t="shared" si="8"/>
         <v>2.2265387160820653</v>
       </c>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K288" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>44163</v>
       </c>
@@ -10175,8 +11050,11 @@
         <f t="shared" si="8"/>
         <v>2.2921244209133027</v>
       </c>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K289" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>44163</v>
       </c>
@@ -10208,8 +11086,11 @@
         <f t="shared" si="8"/>
         <v>2.3122435473196559</v>
       </c>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K290" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>44163</v>
       </c>
@@ -10241,8 +11122,11 @@
         <f t="shared" si="8"/>
         <v>2.245201853077432</v>
       </c>
-    </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K291" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>44163</v>
       </c>
@@ -10274,8 +11158,11 @@
         <f t="shared" ref="J292:J322" si="9">(I292/15.11)/10</f>
         <v>2.2653209794837856</v>
       </c>
-    </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K292" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>44163</v>
       </c>
@@ -10307,8 +11194,11 @@
         <f t="shared" si="9"/>
         <v>2.1769027134348113</v>
       </c>
-    </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K293" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>44163</v>
       </c>
@@ -10340,8 +11230,11 @@
         <f t="shared" si="9"/>
         <v>2.2917273328921244</v>
       </c>
-    </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K294" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>44163</v>
       </c>
@@ -10373,8 +11266,11 @@
         <f t="shared" si="9"/>
         <v>2.2150231634679018</v>
       </c>
-    </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K295" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>44163</v>
       </c>
@@ -10406,8 +11302,11 @@
         <f t="shared" si="9"/>
         <v>2.2674387822634019</v>
       </c>
-    </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K296" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>44163</v>
       </c>
@@ -10439,8 +11338,11 @@
         <f t="shared" si="9"/>
         <v>2.2079417604235605</v>
       </c>
-    </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K297" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>44163</v>
       </c>
@@ -10472,8 +11374,11 @@
         <f t="shared" si="9"/>
         <v>2.2302448709463931</v>
       </c>
-    </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K298" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>44163</v>
       </c>
@@ -10505,8 +11410,11 @@
         <f t="shared" si="9"/>
         <v>2.2755790866975514</v>
       </c>
-    </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K299" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>44163</v>
       </c>
@@ -10538,8 +11446,11 @@
         <f t="shared" si="9"/>
         <v>2.2254798146922568</v>
       </c>
-    </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K300" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>44163</v>
       </c>
@@ -10571,8 +11482,11 @@
         <f t="shared" si="9"/>
         <v>2.2507610853739246</v>
       </c>
-    </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K301" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>44163</v>
       </c>
@@ -10604,8 +11518,11 @@
         <f t="shared" si="9"/>
         <v>2.4095301125082726</v>
       </c>
-    </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K302" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>44163</v>
       </c>
@@ -10637,8 +11554,11 @@
         <f t="shared" si="9"/>
         <v>2.4037723362011914</v>
       </c>
-    </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K303" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>44163</v>
       </c>
@@ -10670,8 +11590,11 @@
         <f t="shared" si="9"/>
         <v>2.3230311052283255</v>
       </c>
-    </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K304" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>44163</v>
       </c>
@@ -10703,8 +11626,11 @@
         <f t="shared" si="9"/>
         <v>2.3818663136995366</v>
       </c>
-    </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K305" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>44163</v>
       </c>
@@ -10736,8 +11662,11 @@
         <f t="shared" si="9"/>
         <v>2.3706154864328259</v>
       </c>
-    </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K306" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>44163</v>
       </c>
@@ -10769,8 +11698,11 @@
         <f t="shared" si="9"/>
         <v>2.3142951687624089</v>
       </c>
-    </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K307" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>44163</v>
       </c>
@@ -10802,8 +11734,11 @@
         <f t="shared" si="9"/>
         <v>2.3121773659827931</v>
       </c>
-    </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K308" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>44163</v>
       </c>
@@ -10835,8 +11770,11 @@
         <f t="shared" si="9"/>
         <v>2.4219060225016547</v>
       </c>
-    </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K309" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>44163</v>
       </c>
@@ -10868,8 +11806,11 @@
         <f t="shared" si="9"/>
         <v>2.3735274652547984</v>
       </c>
-    </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K310" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>44163</v>
       </c>
@@ -10901,8 +11842,11 @@
         <f t="shared" si="9"/>
         <v>2.3773659827928526</v>
       </c>
-    </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K311" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>44163</v>
       </c>
@@ -10934,8 +11878,11 @@
         <f t="shared" si="9"/>
         <v>2.3881535407015226</v>
       </c>
-    </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K312" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>44163</v>
       </c>
@@ -10967,8 +11914,11 @@
         <f t="shared" si="9"/>
         <v>2.3146260754467241</v>
       </c>
-    </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K313" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>44163</v>
       </c>
@@ -11000,8 +11950,11 @@
         <f t="shared" si="9"/>
         <v>2.3672402382528128</v>
       </c>
-    </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K314" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>44163</v>
       </c>
@@ -11033,8 +11986,11 @@
         <f t="shared" si="9"/>
         <v>2.4084712111184645</v>
       </c>
-    </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K315" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>44163</v>
       </c>
@@ -11066,8 +12022,11 @@
         <f t="shared" si="9"/>
         <v>2.3509596293845139</v>
       </c>
-    </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K316" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>44163</v>
       </c>
@@ -11099,8 +12058,11 @@
         <f t="shared" si="9"/>
         <v>2.4240900066181337</v>
       </c>
-    </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K317" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>44163</v>
       </c>
@@ -11132,8 +12094,11 @@
         <f t="shared" si="9"/>
         <v>2.3358041032428853</v>
       </c>
-    </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K318" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>44163</v>
       </c>
@@ -11165,8 +12130,11 @@
         <f t="shared" si="9"/>
         <v>2.4043679682329584</v>
       </c>
-    </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K319" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>44163</v>
       </c>
@@ -11198,8 +12166,11 @@
         <f t="shared" si="9"/>
         <v>2.3587690271343482</v>
       </c>
-    </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K320" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>44163</v>
       </c>
@@ -11231,8 +12202,11 @@
         <f t="shared" si="9"/>
         <v>2.3726009265387162</v>
       </c>
-    </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K321" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>44163</v>
       </c>
@@ -11264,8 +12238,11 @@
         <f t="shared" si="9"/>
         <v>2.3168762409000658</v>
       </c>
-    </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K322" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>44163</v>
       </c>
@@ -11297,8 +12274,11 @@
         <f t="shared" ref="J323:J356" si="10">(I323/15.11)/10</f>
         <v>2.3172733289212442</v>
       </c>
-    </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K323" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>44163</v>
       </c>
@@ -11330,8 +12310,11 @@
         <f t="shared" si="10"/>
         <v>2.3174718729318338</v>
       </c>
-    </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K324" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>44163</v>
       </c>
@@ -11363,8 +12346,11 @@
         <f t="shared" si="10"/>
         <v>2.3497683653209798</v>
       </c>
-    </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K325" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>44163</v>
       </c>
@@ -11396,8 +12382,11 @@
         <f t="shared" si="10"/>
         <v>2.3222369291859697</v>
       </c>
-    </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K326" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>44163</v>
       </c>
@@ -11429,8 +12418,11 @@
         <f t="shared" si="10"/>
         <v>2.368034414295169</v>
       </c>
-    </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K327" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>44163</v>
       </c>
@@ -11462,8 +12454,11 @@
         <f t="shared" si="10"/>
         <v>2.3082064857710125</v>
       </c>
-    </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K328" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>44163</v>
       </c>
@@ -11495,8 +12490,11 @@
         <f t="shared" si="10"/>
         <v>2.294242223692919</v>
       </c>
-    </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K329" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>44163</v>
       </c>
@@ -11528,8 +12526,11 @@
         <f t="shared" si="10"/>
         <v>2.3232958305757778</v>
       </c>
-    </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K330" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>44163</v>
       </c>
@@ -11561,8 +12562,11 @@
         <f t="shared" si="10"/>
         <v>2.2781601588352087</v>
       </c>
-    </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K331" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>44163</v>
       </c>
@@ -11594,8 +12598,11 @@
         <f t="shared" si="10"/>
         <v>2.2642620780939775</v>
       </c>
-    </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K332" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>44163</v>
       </c>
@@ -11627,8 +12634,11 @@
         <f t="shared" si="10"/>
         <v>2.3513567174056917</v>
       </c>
-    </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K333" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>44163</v>
       </c>
@@ -11660,8 +12670,11 @@
         <f t="shared" si="10"/>
         <v>2.357246856386499</v>
       </c>
-    </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K334" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>44163</v>
       </c>
@@ -11693,8 +12706,11 @@
         <f t="shared" si="10"/>
         <v>2.3643944407677036</v>
       </c>
-    </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K335" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>44163</v>
       </c>
@@ -11726,8 +12742,11 @@
         <f t="shared" si="10"/>
         <v>2.3178027796161484</v>
       </c>
-    </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K336" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>44163</v>
       </c>
@@ -11759,8 +12778,11 @@
         <f t="shared" si="10"/>
         <v>2.3586366644606223</v>
       </c>
-    </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K337" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>44163</v>
       </c>
@@ -11792,8 +12814,11 @@
         <f t="shared" si="10"/>
         <v>2.3701522170747849</v>
       </c>
-    </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K338" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>44163</v>
       </c>
@@ -11825,8 +12850,11 @@
         <f t="shared" si="10"/>
         <v>2.344142951687624</v>
       </c>
-    </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K339" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>44163</v>
       </c>
@@ -11858,8 +12886,11 @@
         <f t="shared" si="10"/>
         <v>2.3710125744540038</v>
       </c>
-    </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K340" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>44163</v>
       </c>
@@ -11891,8 +12922,11 @@
         <f t="shared" si="10"/>
         <v>2.3524156187954999</v>
       </c>
-    </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K341" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>44163</v>
       </c>
@@ -11924,8 +12958,11 @@
         <f t="shared" si="10"/>
         <v>2.2757776307081405</v>
       </c>
-    </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K342" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>44163</v>
       </c>
@@ -11957,8 +12994,11 @@
         <f t="shared" si="10"/>
         <v>2.1926538716082069</v>
       </c>
-    </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K343" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>44163</v>
       </c>
@@ -11990,8 +13030,11 @@
         <f t="shared" si="10"/>
         <v>2.2325612177365981</v>
       </c>
-    </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K344" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>44163</v>
       </c>
@@ -12023,8 +13066,11 @@
         <f t="shared" si="10"/>
         <v>2.2191264063534084</v>
       </c>
-    </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K345" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>44163</v>
       </c>
@@ -12056,8 +13102,11 @@
         <f t="shared" si="10"/>
         <v>2.1988087359364661</v>
       </c>
-    </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K346" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>44163</v>
       </c>
@@ -12089,8 +13138,11 @@
         <f t="shared" si="10"/>
         <v>2.2099272005294508</v>
       </c>
-    </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K347" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>44163</v>
       </c>
@@ -12122,8 +13174,11 @@
         <f t="shared" si="10"/>
         <v>2.2238914626075443</v>
       </c>
-    </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K348" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>44163</v>
       </c>
@@ -12155,8 +13210,11 @@
         <f t="shared" si="10"/>
         <v>2.2511581733951025</v>
       </c>
-    </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K349" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>44163</v>
       </c>
@@ -12188,8 +13246,11 @@
         <f t="shared" si="10"/>
         <v>2.1847782925215089</v>
       </c>
-    </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K350" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>44163</v>
       </c>
@@ -12221,8 +13282,11 @@
         <f t="shared" si="10"/>
         <v>2.1990072799470548</v>
       </c>
-    </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K351" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>44163</v>
       </c>
@@ -12254,8 +13318,11 @@
         <f t="shared" si="10"/>
         <v>2.193845135671741</v>
       </c>
-    </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K352" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>44163</v>
       </c>
@@ -12287,8 +13354,11 @@
         <f t="shared" si="10"/>
         <v>2.1904037061548647</v>
       </c>
-    </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K353" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>44163</v>
       </c>
@@ -12320,8 +13390,11 @@
         <f t="shared" si="10"/>
         <v>2.2023825281270684</v>
       </c>
-    </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K354" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>44163</v>
       </c>
@@ -12353,8 +13426,11 @@
         <f t="shared" si="10"/>
         <v>2.2039708802117799</v>
       </c>
-    </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K355" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>44163</v>
       </c>
@@ -12386,8 +13462,11 @@
         <f t="shared" si="10"/>
         <v>2.229053606882859</v>
       </c>
-    </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K356" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>44163</v>
       </c>
@@ -12419,8 +13498,11 @@
         <f t="shared" ref="J357:J386" si="11">(I357/15.11)/10</f>
         <v>2.1913964262078096</v>
       </c>
-    </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K357" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>44163</v>
       </c>
@@ -12452,8 +13534,11 @@
         <f t="shared" si="11"/>
         <v>2.1739245532759766</v>
       </c>
-    </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K358" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>44163</v>
       </c>
@@ -12485,8 +13570,11 @@
         <f t="shared" si="11"/>
         <v>2.2214427531436138</v>
       </c>
-    </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K359" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>44163</v>
       </c>
@@ -12518,8 +13606,11 @@
         <f t="shared" si="11"/>
         <v>2.2317670416942423</v>
       </c>
-    </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K360" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>44163</v>
       </c>
@@ -12551,8 +13642,11 @@
         <f t="shared" si="11"/>
         <v>2.1859695565850434</v>
       </c>
-    </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K361" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>44163</v>
       </c>
@@ -12584,8 +13678,11 @@
         <f t="shared" si="11"/>
         <v>2.1814692256783585</v>
       </c>
-    </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K362" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>44163</v>
       </c>
@@ -12617,8 +13714,11 @@
         <f t="shared" si="11"/>
         <v>2.2901389808074124</v>
       </c>
-    </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K363" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>44163</v>
       </c>
@@ -12650,8 +13750,11 @@
         <f t="shared" si="11"/>
         <v>2.2412971542025151</v>
       </c>
-    </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K364" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>44163</v>
       </c>
@@ -12683,8 +13786,11 @@
         <f t="shared" si="11"/>
         <v>2.2953673064195899</v>
       </c>
-    </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K365" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>44163</v>
       </c>
@@ -12716,8 +13822,11 @@
         <f t="shared" si="11"/>
         <v>2.2164129715420251</v>
       </c>
-    </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K366" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>44163</v>
       </c>
@@ -12749,8 +13858,11 @@
         <f t="shared" si="11"/>
         <v>2.3181336863004631</v>
       </c>
-    </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K367" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>44163</v>
       </c>
@@ -12782,8 +13894,11 @@
         <f t="shared" si="11"/>
         <v>2.2535407015221707</v>
       </c>
-    </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K368" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>44163</v>
       </c>
@@ -12815,8 +13930,11 @@
         <f t="shared" si="11"/>
         <v>2.2344804765056252</v>
       </c>
-    </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K369" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>44163</v>
       </c>
@@ -12848,8 +13966,11 @@
         <f t="shared" si="11"/>
         <v>2.2880211780277966</v>
       </c>
-    </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K370" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>44163</v>
       </c>
@@ -12881,8 +14002,11 @@
         <f t="shared" si="11"/>
         <v>2.2719391131700863</v>
       </c>
-    </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K371" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>44163</v>
       </c>
@@ -12914,8 +14038,11 @@
         <f t="shared" si="11"/>
         <v>2.2679682329583057</v>
       </c>
-    </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K372" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>44163</v>
       </c>
@@ -12947,8 +14074,11 @@
         <f t="shared" si="11"/>
         <v>2.2582395764394443</v>
       </c>
-    </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K373" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>44163</v>
       </c>
@@ -12980,8 +14110,11 @@
         <f t="shared" si="11"/>
         <v>2.2907346128391795</v>
       </c>
-    </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K374" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>44163</v>
       </c>
@@ -13013,8 +14146,11 @@
         <f t="shared" si="11"/>
         <v>2.2762409000661816</v>
       </c>
-    </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K375" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>44163</v>
       </c>
@@ -13046,8 +14182,11 @@
         <f t="shared" si="11"/>
         <v>2.242157511581734</v>
       </c>
-    </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K376" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>44163</v>
       </c>
@@ -13079,8 +14218,11 @@
         <f t="shared" si="11"/>
         <v>2.230509596293845</v>
       </c>
-    </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K377" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>44163</v>
       </c>
@@ -13112,8 +14254,11 @@
         <f t="shared" si="11"/>
         <v>2.213898080741231</v>
       </c>
-    </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K378" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>44163</v>
       </c>
@@ -13145,8 +14290,11 @@
         <f t="shared" si="11"/>
         <v>2.197617471872932</v>
       </c>
-    </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K379" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>44163</v>
       </c>
@@ -13178,8 +14326,11 @@
         <f t="shared" si="11"/>
         <v>2.2191925876902716</v>
       </c>
-    </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K380" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>44163</v>
       </c>
@@ -13211,8 +14362,11 @@
         <f t="shared" si="11"/>
         <v>2.2203176704169425</v>
       </c>
-    </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K381" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>44163</v>
       </c>
@@ -13244,8 +14398,11 @@
         <f t="shared" si="11"/>
         <v>2.2406353408338848</v>
       </c>
-    </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K382" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>44163</v>
       </c>
@@ -13277,8 +14434,11 @@
         <f t="shared" si="11"/>
         <v>2.3113831899404369</v>
       </c>
-    </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K383" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>44163</v>
       </c>
@@ -13310,8 +14470,11 @@
         <f t="shared" si="11"/>
         <v>2.3945069490403705</v>
       </c>
-    </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K384" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>44163</v>
       </c>
@@ -13343,8 +14506,11 @@
         <f t="shared" si="11"/>
         <v>2.3452680344142953</v>
       </c>
-    </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K385" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>44163</v>
       </c>
@@ -13376,8 +14542,11 @@
         <f t="shared" si="11"/>
         <v>2.2921244209133027</v>
       </c>
-    </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K386" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>44163</v>
       </c>
@@ -13409,8 +14578,11 @@
         <f t="shared" ref="J387:J419" si="12">(I387/15.11)/10</f>
         <v>2.3774983454665786</v>
       </c>
-    </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K387" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>44163</v>
       </c>
@@ -13442,8 +14614,11 @@
         <f t="shared" si="12"/>
         <v>2.3524818001323626</v>
       </c>
-    </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K388" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>44163</v>
       </c>
@@ -13475,8 +14650,11 @@
         <f t="shared" si="12"/>
         <v>2.4198544010589016</v>
       </c>
-    </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K389" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>44163</v>
       </c>
@@ -13508,8 +14686,11 @@
         <f t="shared" si="12"/>
         <v>2.3694242223692918</v>
       </c>
-    </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K390" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>44163</v>
       </c>
@@ -13541,8 +14722,11 @@
         <f t="shared" si="12"/>
         <v>2.3765056254136332</v>
       </c>
-    </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K391" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>44163</v>
       </c>
@@ -13574,8 +14758,11 @@
         <f t="shared" si="12"/>
         <v>2.3836532097948382</v>
       </c>
-    </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K392" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>44163</v>
       </c>
@@ -13607,8 +14794,11 @@
         <f t="shared" si="12"/>
         <v>2.3880211780277962</v>
       </c>
-    </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K393" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>44163</v>
       </c>
@@ -13640,8 +14830,11 @@
         <f t="shared" si="12"/>
         <v>2.3839841164791533</v>
       </c>
-    </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K394" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>44163</v>
       </c>
@@ -13673,8 +14866,11 @@
         <f t="shared" si="12"/>
         <v>2.3868299139642621</v>
       </c>
-    </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K395" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>44163</v>
       </c>
@@ -13706,8 +14902,11 @@
         <f t="shared" si="12"/>
         <v>2.3601588352084715</v>
       </c>
-    </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K396" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>44163</v>
       </c>
@@ -13739,8 +14938,11 @@
         <f t="shared" si="12"/>
         <v>2.3646591661151559</v>
       </c>
-    </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K397" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>44163</v>
       </c>
@@ -13772,8 +14974,11 @@
         <f t="shared" si="12"/>
         <v>2.3866313699536734</v>
       </c>
-    </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K398" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>44163</v>
       </c>
@@ -13805,8 +15010,11 @@
         <f t="shared" si="12"/>
         <v>2.341230972865652</v>
       </c>
-    </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K399" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>44163</v>
       </c>
@@ -13838,8 +15046,11 @@
         <f t="shared" si="12"/>
         <v>2.3329583057577765</v>
       </c>
-    </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K400" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>44163</v>
       </c>
@@ -13871,8 +15082,11 @@
         <f t="shared" si="12"/>
         <v>2.3843812045003308</v>
       </c>
-    </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K401" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>44163</v>
       </c>
@@ -13904,8 +15118,11 @@
         <f t="shared" si="12"/>
         <v>2.1912640635340837</v>
       </c>
-    </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K402" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>44163</v>
       </c>
@@ -13937,8 +15154,11 @@
         <f t="shared" si="12"/>
         <v>2.1702183984116479</v>
       </c>
-    </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K403" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>44163</v>
       </c>
@@ -13970,8 +15190,11 @@
         <f t="shared" si="12"/>
         <v>2.1906684315023162</v>
       </c>
-    </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K404" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>44163</v>
       </c>
@@ -14003,8 +15226,11 @@
         <f t="shared" si="12"/>
         <v>2.1431502316346789</v>
       </c>
-    </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K405" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>44163</v>
       </c>
@@ -14036,8 +15262,11 @@
         <f t="shared" si="12"/>
         <v>2.1916611515552615</v>
       </c>
-    </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K406" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>44163</v>
       </c>
@@ -14069,8 +15298,11 @@
         <f t="shared" si="12"/>
         <v>2.1633355393778957</v>
       </c>
-    </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K407" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>44163</v>
       </c>
@@ -14102,8 +15334,11 @@
         <f t="shared" si="12"/>
         <v>2.1782263401720714</v>
       </c>
-    </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K408" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>44163</v>
       </c>
@@ -14135,8 +15370,11 @@
         <f t="shared" si="12"/>
         <v>2.188285903375248</v>
       </c>
-    </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K409" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>44163</v>
       </c>
@@ -14168,8 +15406,11 @@
         <f t="shared" si="12"/>
         <v>2.1516214427531439</v>
       </c>
-    </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K410" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>44163</v>
       </c>
@@ -14201,8 +15442,11 @@
         <f t="shared" si="12"/>
         <v>2.1678358702845797</v>
       </c>
-    </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K411" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>44163</v>
       </c>
@@ -14234,8 +15478,11 @@
         <f t="shared" si="12"/>
         <v>2.0884844473858371</v>
       </c>
-    </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K412" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>44163</v>
       </c>
@@ -14267,8 +15514,11 @@
         <f t="shared" si="12"/>
         <v>2.1765718067504962</v>
       </c>
-    </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K413" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>44163</v>
       </c>
@@ -14300,8 +15550,11 @@
         <f t="shared" si="12"/>
         <v>2.1576439444076767</v>
       </c>
-    </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K414" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>44163</v>
       </c>
@@ -14333,8 +15586,11 @@
         <f t="shared" si="12"/>
         <v>2.143481138318994</v>
       </c>
-    </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K415" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>44163</v>
       </c>
@@ -14366,8 +15622,11 @@
         <f t="shared" si="12"/>
         <v>2.1573792190602252</v>
       </c>
-    </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K416" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>44163</v>
       </c>
@@ -14399,8 +15658,11 @@
         <f t="shared" si="12"/>
         <v>2.1640635340833887</v>
       </c>
-    </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K417" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>44163</v>
       </c>
@@ -14432,8 +15694,11 @@
         <f t="shared" si="12"/>
         <v>2.2460622104566514</v>
       </c>
-    </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K418" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>44163</v>
       </c>
@@ -14465,8 +15730,11 @@
         <f t="shared" si="12"/>
         <v>2.1674387822634018</v>
       </c>
-    </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K419" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>44163</v>
       </c>
@@ -14498,8 +15766,11 @@
         <f t="shared" ref="J420:J421" si="13">(I420/15.11)/10</f>
         <v>2.1516876240900067</v>
       </c>
-    </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K420" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>44163</v>
       </c>
@@ -14530,6 +15801,9 @@
       <c r="J421">
         <f t="shared" si="13"/>
         <v>2.1657842488418266</v>
+      </c>
+      <c r="K421" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -14544,17 +15818,17 @@
   <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14583,7 +15857,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -14606,7 +15880,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -14629,7 +15903,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -14652,7 +15926,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -14675,7 +15949,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -14698,7 +15972,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -14721,7 +15995,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -14744,7 +16018,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -14767,7 +16041,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -14790,7 +16064,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -14813,7 +16087,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -14836,7 +16110,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -14859,7 +16133,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -14882,7 +16156,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -14905,7 +16179,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -14928,7 +16202,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -14951,7 +16225,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -14974,7 +16248,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -14997,7 +16271,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -15020,7 +16294,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -15043,7 +16317,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -15066,7 +16340,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -15089,7 +16363,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -15112,7 +16386,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -15135,7 +16409,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -15158,7 +16432,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -15181,7 +16455,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -15204,7 +16478,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -15227,7 +16501,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>68</v>
       </c>
@@ -15256,7 +16530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>68</v>
       </c>
@@ -15285,7 +16559,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -15314,7 +16588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>68</v>
       </c>
@@ -15343,7 +16617,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -15372,7 +16646,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -15401,7 +16675,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>68</v>
       </c>
@@ -15430,7 +16704,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>68</v>
       </c>
@@ -15459,7 +16733,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>68</v>
       </c>
@@ -15488,7 +16762,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>68</v>
       </c>
@@ -15517,7 +16791,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>68</v>
       </c>
@@ -15546,7 +16820,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>68</v>
       </c>
@@ -15575,7 +16849,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>68</v>
       </c>
@@ -15604,7 +16878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>68</v>
       </c>
@@ -15633,7 +16907,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>68</v>
       </c>
@@ -15662,7 +16936,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>68</v>
       </c>
@@ -15691,7 +16965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>68</v>
       </c>
@@ -15720,7 +16994,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>68</v>
       </c>
@@ -15749,7 +17023,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>68</v>
       </c>
@@ -15778,7 +17052,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>68</v>
       </c>
@@ -15807,7 +17081,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>68</v>
       </c>
@@ -15836,7 +17110,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>68</v>
       </c>
@@ -15865,7 +17139,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>68</v>
       </c>
@@ -15894,7 +17168,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>68</v>
       </c>
@@ -15923,7 +17197,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>68</v>
       </c>
@@ -15952,7 +17226,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -15981,7 +17255,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>68</v>
       </c>
@@ -16010,7 +17284,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>68</v>
       </c>
